--- a/YourLogoMavenProject/ExcelFile/RegistrationData.xlsx
+++ b/YourLogoMavenProject/ExcelFile/RegistrationData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meta\Desktop\OnlineShopping\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meta\git\demoproject\YourLogoMavenProject\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FD3E56-5B1F-4356-86D1-8CD5A3D76FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5F73E7-E08D-41CE-B8B6-28E7B5F06C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A1DF6548-2054-464A-9C92-FD36D2718DE6}"/>
   </bookViews>
@@ -135,7 +135,7 @@
     <t>Bess</t>
   </si>
   <si>
-    <t>tiga@11m0hj2w.com</t>
+    <t>tiggha@11m0hj2w.com</t>
   </si>
 </sst>
 </file>
